--- a/my-app/Inventario.xlsx
+++ b/my-app/Inventario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -23,19 +23,7 @@
     <t>coca cola</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>fanta</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>pepsi</t>
-  </si>
-  <si>
-    <t>56</t>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -106,23 +94,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5"/>
+    <row r="3"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
